--- a/resources/TestData/BASE/DG_NOTOC_Data.xlsx
+++ b/resources/TestData/BASE/DG_NOTOC_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_AA\DGAutoNotoc_2022\DGAutoNotoc_2022\resources\TestData\BASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_AA\DGAutoNotoc_2022\DG_Maven_ADO\DG_Maven\resources\TestData\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestData!$A$1:$CX$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestData!$A$1:$CZ$1</definedName>
     <definedName name="bt_awb_documentNumber" localSheetId="0">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="254">
   <si>
     <t>origin</t>
   </si>
@@ -123,9 +123,6 @@
     <t>fltDt</t>
   </si>
   <si>
-    <t>fltNo</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>pcs</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>screening_method</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>awbNo2</t>
   </si>
   <si>
-    <t>ABQ</t>
-  </si>
-  <si>
     <t>Y963</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>DFWLANE</t>
-  </si>
-  <si>
     <t>pcs1</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>11.02</t>
   </si>
   <si>
-    <t>0340</t>
-  </si>
-  <si>
     <t>Krypton, compressed</t>
   </si>
   <si>
@@ -549,9 +534,6 @@
     <t>UNIDNoNeed</t>
   </si>
   <si>
-    <t>Kg</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
@@ -639,9 +621,6 @@
     <t>unidNo</t>
   </si>
   <si>
-    <t>0664</t>
-  </si>
-  <si>
     <t>cartUldNumber</t>
   </si>
   <si>
@@ -672,9 +651,6 @@
     <t/>
   </si>
   <si>
-    <t>56362596</t>
-  </si>
-  <si>
     <t>0002</t>
   </si>
   <si>
@@ -690,9 +666,6 @@
     <t>56383445</t>
   </si>
   <si>
-    <t>56383541</t>
-  </si>
-  <si>
     <t>20-Jul-2022</t>
   </si>
   <si>
@@ -705,30 +678,15 @@
     <t>56383600</t>
   </si>
   <si>
-    <t>56383681</t>
-  </si>
-  <si>
-    <t>56383714</t>
-  </si>
-  <si>
-    <t>56383736</t>
-  </si>
-  <si>
     <t>56383740</t>
   </si>
   <si>
     <t>56384985</t>
   </si>
   <si>
-    <t>56383530</t>
-  </si>
-  <si>
     <t>56393116</t>
   </si>
   <si>
-    <t>56383574</t>
-  </si>
-  <si>
     <t>customerType</t>
   </si>
   <si>
@@ -738,22 +696,100 @@
     <t>2112</t>
   </si>
   <si>
-    <t>56385092</t>
-  </si>
-  <si>
-    <t>56385173</t>
-  </si>
-  <si>
-    <t>56385206</t>
-  </si>
-  <si>
-    <t>56385221</t>
-  </si>
-  <si>
-    <t>56385243</t>
-  </si>
-  <si>
-    <t>56385254</t>
+    <t>1794</t>
+  </si>
+  <si>
+    <t>56393326</t>
+  </si>
+  <si>
+    <t>56393341</t>
+  </si>
+  <si>
+    <t>56385140</t>
+  </si>
+  <si>
+    <t>56385184</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>fltNo2</t>
+  </si>
+  <si>
+    <t>fltDt2</t>
+  </si>
+  <si>
+    <t>fltNo1</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>0485</t>
+  </si>
+  <si>
+    <t>56385103</t>
+  </si>
+  <si>
+    <t>56393466</t>
+  </si>
+  <si>
+    <t>56393573</t>
+  </si>
+  <si>
+    <t>56393643</t>
+  </si>
+  <si>
+    <t>56393702</t>
+  </si>
+  <si>
+    <t>56393632</t>
+  </si>
+  <si>
+    <t>56393676</t>
+  </si>
+  <si>
+    <t>56393724</t>
+  </si>
+  <si>
+    <t>56393735</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>56398790</t>
+  </si>
+  <si>
+    <t>56393691</t>
+  </si>
+  <si>
+    <t>56398823</t>
+  </si>
+  <si>
+    <t>56398845</t>
+  </si>
+  <si>
+    <t>56398856</t>
+  </si>
+  <si>
+    <t>56445605</t>
+  </si>
+  <si>
+    <t>56445631</t>
+  </si>
+  <si>
+    <t>56445664</t>
+  </si>
+  <si>
+    <t>56393772</t>
   </si>
 </sst>
 </file>
@@ -790,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -824,11 +860,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -848,9 +897,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -858,6 +904,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1140,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX31"/>
+  <dimension ref="A1:CZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,400 +1212,408 @@
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="13" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="28" max="29" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="30" max="31" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="3.85546875" collapsed="true"/>
-    <col min="44" max="45" bestFit="true" customWidth="true" style="1" width="4.85546875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="49" max="52" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="60" max="63" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="53.140625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="46.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="83" max="87" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="89" max="92" bestFit="true" customWidth="true" style="1" width="8.5703125" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="4.5703125" collapsed="true"/>
-    <col min="95" max="96" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="98" max="99" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="103" max="16384" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="19" max="22" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="33" max="34" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="3.85546875" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="4.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="51" max="54" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="62" max="65" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="53.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="46.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="85" max="89" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="91" max="94" bestFit="true" customWidth="true" style="1" width="8.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="1" width="4.5703125" collapsed="true"/>
+    <col min="97" max="98" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="100" max="101" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="105" max="16384" style="1" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="AN1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="10" t="s">
+      <c r="BT1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="CP1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="CT1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="CU1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CV1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="CW1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AS1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC1" s="10" t="s">
+      <c r="CX1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="CY1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="CZ1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BD1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="CM1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CO1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="CQ1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CS1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>138</v>
-      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1559,113 +1623,113 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1</v>
-      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5">
+      <c r="W2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5">
         <v>2</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5">
         <v>123456</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="6">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
-      <c r="AP2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ2" s="6">
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6">
         <v>4</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
       <c r="AU2" s="6"/>
       <c r="AV2" s="6"/>
-      <c r="AW2" s="6">
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6">
         <v>956</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="AZ2" s="5">
         <v>852</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="BA2" s="5">
         <v>859</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="BB2" s="5">
         <v>954</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BD2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE2" s="5"/>
       <c r="BF2" s="5"/>
-      <c r="BG2" s="5">
+      <c r="BG2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
-      <c r="BM2" s="5" t="s">
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BR2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BO2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
@@ -1684,49 +1748,51 @@
       <c r="CH2" s="5"/>
       <c r="CI2" s="5"/>
       <c r="CJ2" s="5"/>
-      <c r="CK2" s="5">
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5">
         <v>1841</v>
       </c>
-      <c r="CL2" s="5">
+      <c r="CN2" s="5">
         <v>1848</v>
       </c>
-      <c r="CM2" s="3">
+      <c r="CO2" s="3">
         <v>1847</v>
       </c>
-      <c r="CN2" s="3">
+      <c r="CP2" s="3">
         <v>1845</v>
       </c>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3">
+      <c r="CR2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3">
         <v>8</v>
       </c>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
       <c r="CV2" s="3"/>
       <c r="CW2" s="3"/>
       <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
@@ -1735,123 +1801,123 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4">
-        <v>1794</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="J3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="W3" s="5">
         <v>99022825</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5">
         <v>1</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5">
         <v>5</v>
       </c>
-      <c r="X3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="AC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="5">
         <v>123456</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ3" s="6">
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6">
         <v>1</v>
       </c>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
-      <c r="AW3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX3" s="5">
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ3" s="5">
         <v>954</v>
       </c>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="3" t="s">
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="5" t="s">
+      <c r="BD3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE3" s="5"/>
       <c r="BF3" s="5"/>
-      <c r="BG3" s="5">
+      <c r="BG3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
       <c r="BL3" s="5"/>
-      <c r="BM3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BN3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ3" s="5"/>
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
-      <c r="BT3" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="BT3" s="5"/>
       <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
+      <c r="BV3" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW3" s="5"/>
       <c r="BX3" s="5"/>
       <c r="BY3" s="5"/>
@@ -1866,150 +1932,160 @@
       <c r="CH3" s="5"/>
       <c r="CI3" s="5"/>
       <c r="CJ3" s="5"/>
-      <c r="CK3" s="5">
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5">
         <v>8000</v>
       </c>
-      <c r="CL3" s="5">
+      <c r="CN3" s="5">
         <v>1845</v>
-      </c>
-      <c r="CM3" s="3"/>
-      <c r="CN3" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="CO3" s="3"/>
       <c r="CP3" s="3" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="CQ3" s="3"/>
-      <c r="CR3" s="3"/>
-      <c r="CS3" s="3">
+      <c r="CR3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3">
         <v>12</v>
       </c>
-      <c r="CT3" s="3"/>
-      <c r="CU3" s="3"/>
-      <c r="CV3" s="3">
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3">
         <v>12</v>
       </c>
-      <c r="CW3" s="3"/>
-      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4">
-        <v>56361012</v>
+      <c r="E4" t="s">
+        <v>238</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5">
-        <v>99022825</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="W4" s="5">
+        <v>99022825</v>
+      </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ4" s="6">
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6">
         <v>1</v>
       </c>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
       <c r="AT4" s="6"/>
       <c r="AU4" s="6"/>
-      <c r="AV4" s="6">
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6">
         <v>954</v>
       </c>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
+      <c r="AY4" s="6"/>
       <c r="AZ4" s="5"/>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB4" s="5" t="s">
+      <c r="BD4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
-      <c r="BG4" s="5">
+      <c r="BG4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
+      <c r="BO4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
-      <c r="BT4" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
+      <c r="BV4" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW4" s="5"/>
       <c r="BX4" s="5"/>
       <c r="BY4" s="5"/>
@@ -2024,42 +2100,44 @@
       <c r="CH4" s="5"/>
       <c r="CI4" s="5"/>
       <c r="CJ4" s="5"/>
-      <c r="CK4" s="5">
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5">
         <v>1845</v>
       </c>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="3"/>
-      <c r="CN4" s="3"/>
+      <c r="CN4" s="5"/>
       <c r="CO4" s="3"/>
-      <c r="CP4" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="CP4" s="3"/>
       <c r="CQ4" s="3"/>
-      <c r="CR4" s="3"/>
-      <c r="CS4" s="3">
+      <c r="CR4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3">
         <v>10</v>
       </c>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CV4" s="3">
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3">
         <v>22</v>
       </c>
-      <c r="CW4" s="3"/>
-      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>214</v>
+      <c r="E5" t="s">
+        <v>253</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2069,267 +2147,287 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="5"/>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5">
-        <v>99022825</v>
-      </c>
+      <c r="P5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="W5" s="5">
+        <v>99022825</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5">
-        <v>1000</v>
-      </c>
+      <c r="AE5" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="6">
-        <v>3</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="6"/>
       <c r="AQ5" s="6">
         <v>1</v>
       </c>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
+      <c r="AR5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>1</v>
+      </c>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
-      <c r="AV5" s="6">
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6">
         <v>954</v>
       </c>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
+      <c r="AY5" s="6"/>
       <c r="AZ5" s="5"/>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC5" s="5"/>
       <c r="BD5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="BE5" s="5"/>
       <c r="BF5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG5" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI5" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
-      <c r="BL5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="BL5" s="5"/>
       <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
+      <c r="BN5" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
-      <c r="BR5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS5" s="5" t="s">
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BT5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
+      <c r="BV5" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW5" s="5"/>
       <c r="BX5" s="5"/>
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
       <c r="CB5" s="5"/>
-      <c r="CC5" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="CC5" s="5"/>
       <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
+      <c r="CE5" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="CF5" s="5"/>
       <c r="CG5" s="5"/>
       <c r="CH5" s="5"/>
       <c r="CI5" s="5"/>
-      <c r="CJ5" s="5">
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5">
         <v>1845</v>
       </c>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="3"/>
-      <c r="CN5" s="3"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
       <c r="CO5" s="3"/>
       <c r="CP5" s="3"/>
       <c r="CQ5" s="3"/>
-      <c r="CR5" s="3"/>
-      <c r="CS5" s="3">
+      <c r="CR5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3">
         <v>4</v>
       </c>
-      <c r="CT5" s="3"/>
-      <c r="CU5" s="3"/>
       <c r="CV5" s="3"/>
       <c r="CW5" s="3"/>
       <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="5">
-        <v>10</v>
-      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5">
+        <v>99022825</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
         <v>100</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5">
         <v>123456</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
-      <c r="AP6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ6" s="6">
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6">
         <v>30</v>
       </c>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
-      <c r="BB6" s="5" t="s">
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
       <c r="BE6" s="5"/>
       <c r="BF6" s="5"/>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
+      <c r="BI6" s="5">
+        <v>99022825</v>
+      </c>
       <c r="BJ6" s="5"/>
       <c r="BK6" s="5"/>
       <c r="BL6" s="5"/>
-      <c r="BM6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN6" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
       <c r="BO6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="BP6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ6" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
-      <c r="BT6" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
+      <c r="BV6" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW6" s="5"/>
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
@@ -2344,42 +2442,46 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
       <c r="CJ6" s="5"/>
-      <c r="CK6" s="5">
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5">
         <v>1133</v>
       </c>
-      <c r="CL6" s="5">
+      <c r="CN6" s="5">
         <v>1193</v>
       </c>
-      <c r="CM6" s="3">
+      <c r="CO6" s="3">
         <v>3082</v>
       </c>
-      <c r="CN6" s="3"/>
-      <c r="CO6" s="3"/>
       <c r="CP6" s="3"/>
       <c r="CQ6" s="3"/>
-      <c r="CR6" s="3"/>
-      <c r="CS6" s="3">
+      <c r="CR6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3">
         <v>300</v>
       </c>
-      <c r="CT6" s="3"/>
-      <c r="CU6" s="3"/>
       <c r="CV6" s="3"/>
       <c r="CW6" s="3"/>
       <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
     </row>
-    <row r="7" spans="1:102" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2389,106 +2491,106 @@
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
-        <v>99022825</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="5">
+        <v>99022825</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5">
-        <v>882234455</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5">
-        <v>59</v>
+      <c r="AE7" s="5">
+        <v>882234455</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5">
+        <v>59</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
-      <c r="AP7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ7" s="6">
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6">
         <v>10</v>
       </c>
-      <c r="AR7" s="6">
+      <c r="AT7" s="6">
         <v>3</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AU7" s="6">
         <v>7</v>
       </c>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6">
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6">
         <v>970</v>
       </c>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
+      <c r="AY7" s="6"/>
       <c r="AZ7" s="5"/>
-      <c r="BA7" s="3" t="s">
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB7" s="5" t="s">
+      <c r="BD7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE7" s="5"/>
       <c r="BF7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG7" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI7" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO7" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
       <c r="BR7" s="5"/>
@@ -2509,156 +2611,160 @@
       <c r="CG7" s="5"/>
       <c r="CH7" s="5"/>
       <c r="CI7" s="5"/>
-      <c r="CJ7" s="5">
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5">
         <v>3091</v>
       </c>
-      <c r="CK7" s="5">
+      <c r="CM7" s="5">
         <v>3091</v>
       </c>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
+      <c r="CN7" s="5"/>
       <c r="CO7" s="3"/>
       <c r="CP7" s="3"/>
       <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3">
+      <c r="CR7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3">
         <v>50</v>
       </c>
-      <c r="CT7" s="3">
+      <c r="CV7" s="3">
         <v>15</v>
       </c>
-      <c r="CU7" s="3">
+      <c r="CW7" s="3">
         <v>35</v>
       </c>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
       <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5">
-        <v>99022825</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="3" t="s">
-        <v>33</v>
+      <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>208</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="5">
+        <v>99022825</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5">
-        <v>40</v>
+      <c r="AE8" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5">
+        <v>40</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
-      <c r="AP8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ8" s="6">
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6">
         <v>1</v>
       </c>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
-      <c r="AV8" s="6">
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6">
         <v>954</v>
       </c>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
+      <c r="AY8" s="6"/>
       <c r="AZ8" s="5"/>
-      <c r="BA8" s="3" t="s">
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB8" s="5" t="s">
+      <c r="BD8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="BE8" s="5"/>
       <c r="BF8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG8" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI8" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
-      <c r="BL8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP8" s="5"/>
       <c r="BQ8" s="5"/>
       <c r="BR8" s="5"/>
@@ -2679,37 +2785,41 @@
       <c r="CG8" s="5"/>
       <c r="CH8" s="5"/>
       <c r="CI8" s="5"/>
-      <c r="CJ8" s="5">
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5">
         <v>1845</v>
       </c>
-      <c r="CK8" s="5">
+      <c r="CM8" s="5">
         <v>1845</v>
       </c>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
+      <c r="CN8" s="5"/>
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
       <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3">
+      <c r="CR8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3">
         <v>5</v>
       </c>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
       <c r="CV8" s="3"/>
       <c r="CW8" s="3"/>
       <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
     </row>
-    <row r="9" spans="1:102" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
@@ -2721,71 +2831,73 @@
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="5"/>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="R9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5">
-        <v>88776644</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
+      <c r="AE9" s="5">
+        <v>88776644</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
-      <c r="AP9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ9" s="6">
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6">
         <v>30</v>
       </c>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
       <c r="AZ9" s="5"/>
-      <c r="BA9" s="3" t="s">
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB9" s="5" t="s">
+      <c r="BD9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
       <c r="BF9" s="5"/>
       <c r="BG9" s="5"/>
@@ -2793,14 +2905,14 @@
       <c r="BI9" s="5"/>
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
-      <c r="BL9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="BN9" s="5"/>
-      <c r="BO9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO9" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="BP9" s="5"/>
       <c r="BQ9" s="5"/>
       <c r="BR9" s="5"/>
@@ -2821,44 +2933,48 @@
       <c r="CG9" s="5"/>
       <c r="CH9" s="5"/>
       <c r="CI9" s="5"/>
-      <c r="CJ9" s="5">
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5">
         <v>3322</v>
       </c>
-      <c r="CK9" s="5">
+      <c r="CM9" s="5">
         <v>3322</v>
       </c>
-      <c r="CL9" s="5"/>
-      <c r="CM9" s="3"/>
-      <c r="CN9" s="3"/>
+      <c r="CN9" s="5"/>
       <c r="CO9" s="3"/>
       <c r="CP9" s="3"/>
       <c r="CQ9" s="3"/>
-      <c r="CR9" s="3"/>
-      <c r="CS9" s="3">
+      <c r="CR9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3">
         <v>100</v>
       </c>
-      <c r="CT9" s="3"/>
-      <c r="CU9" s="3"/>
       <c r="CV9" s="3"/>
       <c r="CW9" s="3"/>
       <c r="CX9" s="3"/>
+      <c r="CY9" s="3"/>
+      <c r="CZ9" s="3"/>
     </row>
-    <row r="10" spans="1:102" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10">
-        <v>56383633</v>
-      </c>
-      <c r="F10">
-        <v>56383670</v>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" t="s">
+        <v>226</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
@@ -2867,115 +2983,115 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4">
-        <v>1276</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="J10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="5">
-        <v>10</v>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5">
         <v>50</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5">
-        <v>88776644</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
+      <c r="AE10" s="5">
+        <v>88776644</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
-      <c r="AP10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ10" s="6">
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6">
         <v>20</v>
       </c>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="6">
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6">
         <v>200</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AZ10" s="5">
         <v>969</v>
       </c>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="3" t="s">
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="5" t="s">
+      <c r="BD10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI10" s="8" t="s">
+      <c r="BG10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BJ10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN10" s="8" t="s">
+      <c r="BM10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BO10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="BP10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ10" s="5"/>
-      <c r="BR10" s="5"/>
+      <c r="BR10" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
@@ -2985,65 +3101,69 @@
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
-      <c r="CB10" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="CB10" s="5"/>
       <c r="CC10" s="5"/>
-      <c r="CD10" s="5"/>
+      <c r="CD10" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="CE10" s="5"/>
-      <c r="CF10" s="5">
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5">
         <v>3157</v>
       </c>
-      <c r="CG10" s="5">
+      <c r="CI10" s="5">
         <v>3091</v>
       </c>
-      <c r="CH10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CI10" s="5">
+      <c r="CJ10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK10" s="5">
         <v>3481</v>
       </c>
-      <c r="CJ10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK10" s="5">
+      <c r="CL10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM10" s="5">
         <v>3157</v>
       </c>
-      <c r="CL10" s="5">
+      <c r="CN10" s="5">
         <v>3091</v>
       </c>
-      <c r="CM10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CN10" s="3">
+      <c r="CO10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP10" s="3">
         <v>3481</v>
       </c>
-      <c r="CO10" s="3"/>
-      <c r="CP10" s="3"/>
       <c r="CQ10" s="3"/>
-      <c r="CR10" s="3"/>
-      <c r="CS10" s="3">
+      <c r="CR10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS10" s="3"/>
+      <c r="CT10" s="3"/>
+      <c r="CU10" s="3">
         <v>200</v>
       </c>
-      <c r="CT10" s="3"/>
-      <c r="CU10" s="3"/>
       <c r="CV10" s="3"/>
       <c r="CW10" s="3"/>
       <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
+      <c r="CZ10" s="3"/>
     </row>
-    <row r="11" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3054,103 +3174,103 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5">
-        <v>99022825</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="W11" s="5">
+        <v>99022825</v>
+      </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
+      <c r="AE11" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO11" s="6"/>
-      <c r="AP11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6">
         <v>1</v>
       </c>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
-      <c r="AV11" s="6">
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6">
         <v>134</v>
       </c>
-      <c r="AW11" s="6">
+      <c r="AY11" s="6">
         <v>134</v>
       </c>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
-      <c r="BA11" s="3" t="s">
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB11" s="5" t="s">
+      <c r="BD11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE11" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE11" s="5"/>
       <c r="BF11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG11" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI11" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
-      <c r="BL11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="BP11" s="5"/>
       <c r="BQ11" s="5"/>
       <c r="BR11" s="5"/>
@@ -3165,49 +3285,53 @@
       <c r="CA11" s="5"/>
       <c r="CB11" s="5"/>
       <c r="CC11" s="5"/>
-      <c r="CD11" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="CD11" s="5"/>
       <c r="CE11" s="5"/>
-      <c r="CF11" s="5"/>
+      <c r="CF11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="CG11" s="5"/>
       <c r="CH11" s="5"/>
       <c r="CI11" s="5"/>
-      <c r="CJ11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CL11" s="5"/>
-      <c r="CM11" s="3"/>
-      <c r="CN11" s="3"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN11" s="5"/>
       <c r="CO11" s="3"/>
       <c r="CP11" s="3"/>
       <c r="CQ11" s="3"/>
-      <c r="CR11" s="3"/>
-      <c r="CS11" s="3">
+      <c r="CR11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3">
         <v>5</v>
       </c>
-      <c r="CT11" s="3"/>
-      <c r="CU11" s="3"/>
       <c r="CV11" s="3"/>
       <c r="CW11" s="3"/>
       <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
+      <c r="CZ11" s="3"/>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3218,101 +3342,101 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="AE12" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO12" s="6"/>
-      <c r="AP12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ12" s="6">
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6">
         <v>5</v>
       </c>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
-      <c r="AV12" s="6">
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6">
         <v>201</v>
       </c>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
+      <c r="AY12" s="6"/>
       <c r="AZ12" s="5"/>
-      <c r="BA12" s="3" t="s">
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB12" s="5" t="s">
+      <c r="BD12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE12" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE12" s="5"/>
       <c r="BF12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="BG12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
-      <c r="BL12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN12" s="5"/>
-      <c r="BO12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO12" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="BP12" s="5"/>
       <c r="BQ12" s="5"/>
       <c r="BR12" s="5"/>
@@ -3327,46 +3451,48 @@
       <c r="CA12" s="5"/>
       <c r="CB12" s="5"/>
       <c r="CC12" s="5"/>
-      <c r="CD12" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="CD12" s="5"/>
       <c r="CE12" s="5"/>
-      <c r="CF12" s="5"/>
+      <c r="CF12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="CG12" s="5"/>
       <c r="CH12" s="5"/>
       <c r="CI12" s="5"/>
-      <c r="CJ12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK12" s="5">
+      <c r="CJ12" s="5"/>
+      <c r="CK12" s="5"/>
+      <c r="CL12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM12" s="5">
         <v>1057</v>
       </c>
-      <c r="CL12" s="5"/>
-      <c r="CM12" s="3"/>
-      <c r="CN12" s="3"/>
+      <c r="CN12" s="5"/>
       <c r="CO12" s="3"/>
-      <c r="CP12" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="CP12" s="3"/>
       <c r="CQ12" s="3"/>
-      <c r="CR12" s="3"/>
-      <c r="CS12" s="3">
+      <c r="CR12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CU12" s="3">
         <v>5</v>
       </c>
-      <c r="CT12" s="3"/>
-      <c r="CU12" s="3"/>
-      <c r="CV12" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="CV12" s="3"/>
       <c r="CW12" s="3"/>
-      <c r="CX12" s="3"/>
+      <c r="CX12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY12" s="3"/>
+      <c r="CZ12" s="3"/>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -3383,113 +3509,113 @@
       <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="4">
-        <v>2644</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="5"/>
+      <c r="J13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
+      <c r="W13" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="AE13" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO13" s="6"/>
-      <c r="AP13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ13" s="6">
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6">
         <v>2</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AT13" s="6">
         <v>1</v>
       </c>
-      <c r="AS13" s="6">
+      <c r="AU13" s="6">
         <v>1</v>
       </c>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6">
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6">
         <v>201</v>
       </c>
-      <c r="AW13" s="6">
+      <c r="AY13" s="6">
         <v>200</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AZ13" s="5">
         <v>852</v>
       </c>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="3" t="s">
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB13" s="5" t="s">
+      <c r="BD13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE13" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE13" s="5"/>
       <c r="BF13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG13" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI13" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
-      <c r="BL13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM13" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
       <c r="BN13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="BO13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP13" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="5"/>
       <c r="BS13" s="5"/>
@@ -3501,63 +3627,65 @@
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
-      <c r="CB13" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="CB13" s="5"/>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
+      <c r="CF13" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
-      <c r="CJ13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK13" s="5">
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5"/>
+      <c r="CL13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM13" s="5">
         <v>1056</v>
       </c>
-      <c r="CL13" s="5">
+      <c r="CN13" s="5">
         <v>1805</v>
       </c>
-      <c r="CM13" s="3"/>
-      <c r="CN13" s="3"/>
       <c r="CO13" s="3"/>
-      <c r="CP13" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="CP13" s="3"/>
       <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3">
+      <c r="CR13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3">
         <v>74</v>
       </c>
-      <c r="CT13" s="3">
+      <c r="CV13" s="3">
         <v>70</v>
       </c>
-      <c r="CU13" s="3">
+      <c r="CW13" s="3">
         <v>4</v>
       </c>
-      <c r="CV13" s="3">
+      <c r="CX13" s="3">
         <v>163</v>
       </c>
-      <c r="CW13" s="3"/>
-      <c r="CX13" s="3"/>
+      <c r="CY13" s="3"/>
+      <c r="CZ13" s="3"/>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -3567,109 +3695,109 @@
       <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="5"/>
+      <c r="J14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="W14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="AE14" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO14" s="6"/>
-      <c r="AP14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ14" s="6">
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6">
         <v>2</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AT14" s="6">
         <v>1</v>
       </c>
-      <c r="AS14" s="6">
+      <c r="AU14" s="6">
         <v>1</v>
       </c>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
       <c r="AV14" s="6"/>
-      <c r="AW14" s="6">
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6">
         <v>200</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AZ14" s="5">
         <v>550</v>
       </c>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="3" t="s">
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB14" s="5" t="s">
+      <c r="BD14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE14" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE14" s="5"/>
       <c r="BF14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG14" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI14" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
-      <c r="BM14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP14" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="BQ14" s="5"/>
       <c r="BR14" s="5"/>
       <c r="BS14" s="5"/>
@@ -3683,59 +3811,61 @@
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
       <c r="CC14" s="5"/>
-      <c r="CD14" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="CD14" s="5"/>
       <c r="CE14" s="5"/>
-      <c r="CF14" s="5"/>
+      <c r="CF14" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
-      <c r="CJ14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK14" s="5">
+      <c r="CJ14" s="5"/>
+      <c r="CK14" s="5"/>
+      <c r="CL14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM14" s="5">
         <v>3157</v>
       </c>
-      <c r="CL14" s="5">
+      <c r="CN14" s="5">
         <v>2429</v>
       </c>
-      <c r="CM14" s="3"/>
-      <c r="CN14" s="3"/>
       <c r="CO14" s="3"/>
-      <c r="CP14" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="CP14" s="3"/>
       <c r="CQ14" s="3"/>
-      <c r="CR14" s="3"/>
-      <c r="CS14" s="3">
+      <c r="CR14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3">
         <v>75</v>
       </c>
-      <c r="CT14" s="3">
+      <c r="CV14" s="3">
         <v>74</v>
       </c>
-      <c r="CU14" s="3">
+      <c r="CW14" s="3">
         <v>1</v>
       </c>
-      <c r="CV14" s="3">
+      <c r="CX14" s="3">
         <v>165</v>
       </c>
-      <c r="CW14" s="3"/>
-      <c r="CX14" s="3"/>
+      <c r="CY14" s="3"/>
+      <c r="CZ14" s="3"/>
     </row>
-    <row r="15" spans="1:102" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -3746,106 +3876,106 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="W15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="AE15" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO15" s="6"/>
-      <c r="AP15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ15" s="6">
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6">
         <v>1</v>
       </c>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
-      <c r="AV15" s="6">
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6">
         <v>130</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AY15" s="6">
         <v>130</v>
       </c>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
-      <c r="BA15" s="3" t="s">
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB15" s="5" t="s">
+      <c r="BD15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE15" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE15" s="5"/>
       <c r="BF15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG15" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI15" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
-      <c r="BL15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BM15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO15" s="5"/>
-      <c r="BP15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP15" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="BQ15" s="5"/>
       <c r="BR15" s="5"/>
       <c r="BS15" s="5"/>
@@ -3865,45 +3995,49 @@
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
-      <c r="CJ15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CL15" s="5">
+      <c r="CJ15" s="5"/>
+      <c r="CK15" s="5"/>
+      <c r="CL15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN15" s="5">
         <v>2915</v>
       </c>
-      <c r="CM15" s="3"/>
-      <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
       <c r="CQ15" s="3"/>
-      <c r="CR15" s="3"/>
-      <c r="CS15" s="3">
+      <c r="CR15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3">
         <v>10</v>
       </c>
-      <c r="CT15" s="3">
+      <c r="CV15" s="3">
         <v>10</v>
       </c>
-      <c r="CU15" s="3"/>
-      <c r="CV15" s="3"/>
       <c r="CW15" s="3"/>
       <c r="CX15" s="3"/>
+      <c r="CY15" s="3"/>
+      <c r="CZ15" s="3"/>
     </row>
-    <row r="16" spans="1:102" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:104" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -3913,176 +4047,180 @@
       <c r="I16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="J16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="W16" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5">
+      <c r="AE16" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5">
         <v>40</v>
       </c>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5" t="s">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="6">
         <v>10</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="6">
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6">
         <v>10</v>
       </c>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6">
-        <v>10</v>
-      </c>
-      <c r="AV16" s="6">
+      <c r="AX16" s="6">
         <v>970</v>
       </c>
-      <c r="AW16" s="6">
+      <c r="AY16" s="6">
         <v>970</v>
       </c>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
-      <c r="BA16" s="3" t="s">
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB16" s="5" t="s">
+      <c r="BD16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD16" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE16" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG16" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI16" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
-      <c r="BL16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN16" s="5"/>
-      <c r="BO16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO16" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="BP16" s="5"/>
-      <c r="BQ16" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="BQ16" s="5"/>
       <c r="BR16" s="5"/>
-      <c r="BS16" s="5"/>
+      <c r="BS16" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
       <c r="BV16" s="5"/>
       <c r="BW16" s="5"/>
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
-      <c r="BZ16" s="5">
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5">
         <v>11</v>
       </c>
-      <c r="CA16" s="5">
+      <c r="CC16" s="5">
         <v>105</v>
       </c>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="5"/>
-      <c r="CD16" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="CD16" s="5"/>
       <c r="CE16" s="5"/>
-      <c r="CF16" s="5"/>
+      <c r="CF16" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
-      <c r="CJ16" s="5">
+      <c r="CJ16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CL16" s="5">
         <v>3091</v>
       </c>
-      <c r="CK16" s="5">
+      <c r="CM16" s="5">
         <v>3091</v>
       </c>
-      <c r="CL16" s="5"/>
-      <c r="CM16" s="3"/>
-      <c r="CN16" s="3"/>
+      <c r="CN16" s="5"/>
       <c r="CO16" s="3"/>
       <c r="CP16" s="3"/>
       <c r="CQ16" s="3"/>
-      <c r="CR16" s="3"/>
-      <c r="CS16" s="3">
+      <c r="CR16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CU16" s="3">
         <v>5</v>
       </c>
-      <c r="CT16" s="3">
+      <c r="CV16" s="3">
         <v>100</v>
       </c>
-      <c r="CU16" s="3"/>
-      <c r="CV16" s="3"/>
       <c r="CW16" s="3"/>
-      <c r="CX16" s="3">
+      <c r="CX16" s="3"/>
+      <c r="CY16" s="3"/>
+      <c r="CZ16" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -4090,8 +4228,8 @@
       <c r="D17" s="3">
         <v>151</v>
       </c>
-      <c r="E17" s="4">
-        <v>56374511</v>
+      <c r="E17" t="s">
+        <v>234</v>
       </c>
       <c r="F17" s="4">
         <v>56362390</v>
@@ -4105,172 +4243,178 @@
       <c r="I17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="5">
-        <v>1268</v>
+      <c r="J17" t="s">
+        <v>202</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="M17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="5">
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5">
         <v>123456</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AF17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD17" s="5">
+      <c r="AG17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI17" s="5">
         <v>67</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AJ17" s="5">
         <v>65</v>
       </c>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
-      <c r="AP17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ17" s="6">
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6">
         <v>1</v>
       </c>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
-      <c r="AW17" s="6">
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6">
         <v>954</v>
       </c>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
       <c r="AZ17" s="5"/>
-      <c r="BA17" s="3" t="s">
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BD17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5">
+      <c r="BF17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
-      <c r="BM17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP17" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="BQ17" s="5"/>
-      <c r="BR17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS17" s="5" t="s">
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BT17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU17" s="5"/>
-      <c r="BV17" s="5"/>
+      <c r="BV17" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW17" s="5"/>
       <c r="BX17" s="5"/>
-      <c r="BY17" s="5">
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5">
         <v>1</v>
       </c>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
       <c r="CB17" s="5"/>
-      <c r="CC17" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="CC17" s="5"/>
       <c r="CD17" s="5"/>
-      <c r="CE17" s="5"/>
+      <c r="CE17" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
       <c r="CH17" s="5"/>
       <c r="CI17" s="5"/>
       <c r="CJ17" s="5"/>
-      <c r="CK17" s="5">
+      <c r="CK17" s="5"/>
+      <c r="CL17" s="5"/>
+      <c r="CM17" s="5">
         <v>1845</v>
       </c>
-      <c r="CL17" s="5">
+      <c r="CN17" s="5">
         <v>2915</v>
       </c>
-      <c r="CM17" s="3"/>
-      <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
       <c r="CP17" s="3"/>
       <c r="CQ17" s="3"/>
-      <c r="CR17" s="3"/>
-      <c r="CS17" s="3">
+      <c r="CR17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS17" s="3"/>
+      <c r="CT17" s="3"/>
+      <c r="CU17" s="3">
         <v>202</v>
       </c>
-      <c r="CT17" s="3"/>
-      <c r="CU17" s="3"/>
       <c r="CV17" s="3"/>
       <c r="CW17" s="3"/>
       <c r="CX17" s="3"/>
+      <c r="CY17" s="3"/>
+      <c r="CZ17" s="3"/>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
@@ -4282,164 +4426,170 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="W18" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5">
         <v>123456</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AF18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
+      <c r="AG18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
-      <c r="AP18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ18" s="6">
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6">
         <v>1</v>
       </c>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
-      <c r="AV18" s="6">
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6">
         <v>954</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AY18" s="6">
         <v>954</v>
       </c>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
-      <c r="BA18" s="3" t="s">
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB18" s="5" t="s">
+      <c r="BD18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5">
+      <c r="BF18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
-      <c r="BL18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN18" s="5"/>
-      <c r="BO18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO18" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP18" s="5"/>
       <c r="BQ18" s="5"/>
-      <c r="BR18" s="5" t="s">
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS18" s="5" t="s">
+      <c r="BU18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BT18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU18" s="5"/>
-      <c r="BV18" s="5"/>
+      <c r="BV18" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW18" s="5"/>
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
-      <c r="CC18" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="CC18" s="5"/>
       <c r="CD18" s="5"/>
-      <c r="CE18" s="5"/>
+      <c r="CE18" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="CF18" s="5"/>
       <c r="CG18" s="5"/>
       <c r="CH18" s="5"/>
       <c r="CI18" s="5"/>
-      <c r="CJ18" s="5">
+      <c r="CJ18" s="5"/>
+      <c r="CK18" s="5"/>
+      <c r="CL18" s="5">
         <v>1845</v>
       </c>
-      <c r="CK18" s="5">
+      <c r="CM18" s="5">
         <v>1845</v>
       </c>
-      <c r="CL18" s="5"/>
-      <c r="CM18" s="3"/>
-      <c r="CN18" s="3"/>
+      <c r="CN18" s="5"/>
       <c r="CO18" s="3"/>
       <c r="CP18" s="3"/>
       <c r="CQ18" s="3"/>
-      <c r="CR18" s="3"/>
-      <c r="CS18" s="3">
+      <c r="CR18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS18" s="3"/>
+      <c r="CT18" s="3"/>
+      <c r="CU18" s="3">
         <v>80</v>
       </c>
-      <c r="CT18" s="3"/>
-      <c r="CU18" s="3"/>
       <c r="CV18" s="3"/>
       <c r="CW18" s="3"/>
       <c r="CX18" s="3"/>
+      <c r="CY18" s="3"/>
+      <c r="CZ18" s="3"/>
     </row>
-    <row r="19" spans="1:102" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -4449,100 +4599,100 @@
       <c r="I19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="10">
         <v>2431</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="P19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="W19" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="AE19" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO19" s="6"/>
-      <c r="AP19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ19" s="6">
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6">
         <v>2</v>
       </c>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
       <c r="AZ19" s="5"/>
-      <c r="BA19" s="3" t="s">
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BD19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE19" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE19" s="5"/>
       <c r="BF19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="BG19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
-      <c r="BL19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN19" s="5"/>
-      <c r="BO19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO19" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="BP19" s="5"/>
       <c r="BQ19" s="5"/>
       <c r="BR19" s="5"/>
@@ -4555,46 +4705,50 @@
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
-      <c r="CB19" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="CB19" s="5"/>
       <c r="CC19" s="5"/>
       <c r="CD19" s="5" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="CE19" s="5"/>
-      <c r="CF19" s="5"/>
+      <c r="CF19" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="CG19" s="5"/>
       <c r="CH19" s="5"/>
       <c r="CI19" s="5"/>
-      <c r="CJ19" s="5">
+      <c r="CJ19" s="5"/>
+      <c r="CK19" s="5"/>
+      <c r="CL19" s="5">
         <v>2917</v>
       </c>
-      <c r="CK19" s="5">
+      <c r="CM19" s="5">
         <v>2917</v>
       </c>
-      <c r="CL19" s="5"/>
-      <c r="CM19" s="3"/>
-      <c r="CN19" s="3"/>
+      <c r="CN19" s="5"/>
       <c r="CO19" s="3"/>
       <c r="CP19" s="3"/>
       <c r="CQ19" s="3"/>
-      <c r="CR19" s="3"/>
-      <c r="CS19" s="3">
+      <c r="CR19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CU19" s="3">
         <v>10</v>
       </c>
-      <c r="CT19" s="3"/>
-      <c r="CU19" s="3"/>
       <c r="CV19" s="3"/>
       <c r="CW19" s="3"/>
       <c r="CX19" s="3"/>
+      <c r="CY19" s="3"/>
+      <c r="CZ19" s="3"/>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
@@ -4611,123 +4765,123 @@
       <c r="I20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="10">
         <v>2812</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="P20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5">
-        <v>789462626</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="AE20" s="5">
+        <v>789462626</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6">
-        <v>2</v>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
-      <c r="AP20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ20" s="6">
+      <c r="AP20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6">
         <v>1</v>
       </c>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6">
-        <v>10</v>
-      </c>
+      <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6">
+        <v>10</v>
+      </c>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6">
         <v>954</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AY20" s="6">
         <v>954</v>
       </c>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
       <c r="AZ20" s="5"/>
-      <c r="BA20" s="3" t="s">
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB20" s="5" t="s">
+      <c r="BD20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD20" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5">
+        <v>141</v>
+      </c>
+      <c r="BF20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
-      <c r="BL20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN20" s="5"/>
-      <c r="BO20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP20" s="5"/>
       <c r="BQ20" s="5"/>
-      <c r="BR20" s="5" t="s">
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS20" s="5"/>
-      <c r="BT20" s="5"/>
       <c r="BU20" s="5"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="3" t="s">
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BX20" s="5">
+      <c r="BZ20" s="5">
         <v>2223</v>
       </c>
-      <c r="BY20" s="5"/>
-      <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
       <c r="CC20" s="5"/>
@@ -4737,36 +4891,40 @@
       <c r="CG20" s="5"/>
       <c r="CH20" s="5"/>
       <c r="CI20" s="5"/>
-      <c r="CJ20" s="5">
+      <c r="CJ20" s="5"/>
+      <c r="CK20" s="5"/>
+      <c r="CL20" s="5">
         <v>1845</v>
       </c>
-      <c r="CK20" s="5">
+      <c r="CM20" s="5">
         <v>1845</v>
       </c>
-      <c r="CL20" s="5"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
+      <c r="CN20" s="5"/>
       <c r="CO20" s="3"/>
       <c r="CP20" s="3"/>
       <c r="CQ20" s="3"/>
-      <c r="CR20" s="3"/>
-      <c r="CS20" s="3">
+      <c r="CR20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3">
         <v>10</v>
       </c>
-      <c r="CT20" s="3"/>
-      <c r="CU20" s="3"/>
       <c r="CV20" s="3"/>
-      <c r="CW20" s="3">
+      <c r="CW20" s="3"/>
+      <c r="CX20" s="3"/>
+      <c r="CY20" s="3">
         <v>100</v>
       </c>
-      <c r="CX20" s="3"/>
+      <c r="CZ20" s="3"/>
     </row>
-    <row r="21" spans="1:102" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
@@ -4783,119 +4941,119 @@
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="10">
         <v>2129</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="P21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5">
-        <v>789462626</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
+      <c r="AE21" s="5">
+        <v>789462626</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6">
-        <v>2</v>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
-      <c r="AP21" s="6" t="s">
-        <v>10</v>
+      <c r="AP21" s="6">
+        <v>2</v>
       </c>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
-      <c r="AT21" s="6">
-        <v>10</v>
-      </c>
+      <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
       <c r="AV21" s="6">
+        <v>10</v>
+      </c>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6">
         <v>966</v>
       </c>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
+      <c r="AY21" s="6"/>
       <c r="AZ21" s="5"/>
-      <c r="BA21" s="3" t="s">
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB21" s="5" t="s">
+      <c r="BD21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD21" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5">
+        <v>141</v>
+      </c>
+      <c r="BF21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
-      <c r="BL21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN21" s="5"/>
-      <c r="BO21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO21" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="BP21" s="5"/>
       <c r="BQ21" s="5"/>
-      <c r="BR21" s="5" t="s">
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS21" s="5"/>
-      <c r="BT21" s="5"/>
       <c r="BU21" s="5"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="3" t="s">
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BX21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY21" s="5"/>
-      <c r="BZ21" s="5"/>
+      <c r="BZ21" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="CA21" s="5"/>
       <c r="CB21" s="5"/>
       <c r="CC21" s="5"/>
@@ -4905,34 +5063,38 @@
       <c r="CG21" s="5"/>
       <c r="CH21" s="5"/>
       <c r="CI21" s="5"/>
-      <c r="CJ21" s="5">
+      <c r="CJ21" s="5"/>
+      <c r="CK21" s="5"/>
+      <c r="CL21" s="5">
         <v>3481</v>
       </c>
-      <c r="CK21" s="5">
+      <c r="CM21" s="5">
         <v>3481</v>
       </c>
-      <c r="CL21" s="5"/>
-      <c r="CM21" s="3"/>
-      <c r="CN21" s="3"/>
+      <c r="CN21" s="5"/>
       <c r="CO21" s="3"/>
       <c r="CP21" s="3"/>
       <c r="CQ21" s="3"/>
-      <c r="CR21" s="3"/>
-      <c r="CS21" s="3">
+      <c r="CR21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS21" s="3"/>
+      <c r="CT21" s="3"/>
+      <c r="CU21" s="3">
         <v>100</v>
       </c>
-      <c r="CT21" s="3"/>
-      <c r="CU21" s="3"/>
       <c r="CV21" s="3"/>
       <c r="CW21" s="3"/>
       <c r="CX21" s="3"/>
+      <c r="CY21" s="3"/>
+      <c r="CZ21" s="3"/>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
@@ -4954,108 +5116,108 @@
       <c r="J22" s="4">
         <v>1794</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="5"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
         <v>99022825</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="5">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
         <v>1</v>
       </c>
-      <c r="U22" s="5">
+      <c r="Z22" s="5">
         <v>1</v>
       </c>
-      <c r="V22" s="5">
+      <c r="AA22" s="5">
         <v>2</v>
       </c>
-      <c r="W22" s="5">
+      <c r="AB22" s="5">
         <v>100</v>
       </c>
-      <c r="X22" s="5">
+      <c r="AC22" s="5">
         <v>75</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="AD22" s="5">
         <v>30</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AE22" s="5">
         <v>123456</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AF22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
-      <c r="AP22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ22" s="6">
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6">
         <v>3</v>
       </c>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
-      <c r="AW22" s="6">
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6">
         <v>200</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AZ22" s="5">
         <v>130</v>
       </c>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="3" t="s">
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB22" s="5" t="s">
+      <c r="BD22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE22" s="5"/>
       <c r="BF22" s="5"/>
-      <c r="BG22" s="5">
+      <c r="BG22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
-      <c r="BM22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO22" s="5"/>
-      <c r="BP22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP22" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="5"/>
       <c r="BS22" s="5"/>
@@ -5076,33 +5238,37 @@
       <c r="CH22" s="5"/>
       <c r="CI22" s="5"/>
       <c r="CJ22" s="5"/>
-      <c r="CK22" s="5">
+      <c r="CK22" s="5"/>
+      <c r="CL22" s="5"/>
+      <c r="CM22" s="5">
         <v>1058</v>
       </c>
-      <c r="CL22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM22" s="3"/>
-      <c r="CN22" s="3"/>
+      <c r="CN22" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
       <c r="CQ22" s="3"/>
-      <c r="CR22" s="3"/>
-      <c r="CS22" s="3">
+      <c r="CR22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS22" s="3"/>
+      <c r="CT22" s="3"/>
+      <c r="CU22" s="3">
         <v>105</v>
       </c>
-      <c r="CT22" s="3"/>
-      <c r="CU22" s="3"/>
       <c r="CV22" s="3"/>
       <c r="CW22" s="3"/>
       <c r="CX22" s="3"/>
+      <c r="CY22" s="3"/>
+      <c r="CZ22" s="3"/>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5117,115 +5283,115 @@
         <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="5">
+        <v>126</v>
+      </c>
+      <c r="J23" s="10">
         <v>7348</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5">
-        <v>99022825</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T23" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5">
+        <v>99022825</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5">
         <v>2</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
+      <c r="AE23" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
-      <c r="AP23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ23" s="6">
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6">
         <v>4</v>
       </c>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
       <c r="AT23" s="6"/>
       <c r="AU23" s="6"/>
       <c r="AV23" s="6"/>
-      <c r="AW23" s="6">
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6">
         <v>969</v>
       </c>
-      <c r="AX23" s="5">
+      <c r="AZ23" s="5">
         <v>130</v>
       </c>
-      <c r="AY23" s="5">
+      <c r="BA23" s="5">
         <v>967</v>
       </c>
-      <c r="AZ23" s="5">
+      <c r="BB23" s="5">
         <v>954</v>
       </c>
-      <c r="BA23" s="3" t="s">
+      <c r="BC23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB23" s="5" t="s">
+      <c r="BD23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BE23" s="5"/>
       <c r="BF23" s="5"/>
-      <c r="BG23" s="5">
+      <c r="BG23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
-      <c r="BM23" s="5" t="s">
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BN23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ23" s="5"/>
-      <c r="BR23" s="5"/>
+      <c r="BQ23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR23" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BS23" s="5"/>
       <c r="BT23" s="5"/>
       <c r="BU23" s="5"/>
@@ -5244,37 +5410,41 @@
       <c r="CH23" s="5"/>
       <c r="CI23" s="5"/>
       <c r="CJ23" s="5"/>
-      <c r="CK23" s="5">
+      <c r="CK23" s="5"/>
+      <c r="CL23" s="5"/>
+      <c r="CM23" s="5">
         <v>3091</v>
       </c>
-      <c r="CL23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM23" s="3">
+      <c r="CN23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO23" s="3">
         <v>3481</v>
       </c>
-      <c r="CN23" s="3">
+      <c r="CP23" s="3">
         <v>1845</v>
       </c>
-      <c r="CO23" s="3"/>
-      <c r="CP23" s="3"/>
       <c r="CQ23" s="3"/>
-      <c r="CR23" s="3"/>
-      <c r="CS23" s="3">
+      <c r="CR23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3">
         <v>8</v>
       </c>
-      <c r="CT23" s="3"/>
-      <c r="CU23" s="3"/>
       <c r="CV23" s="3"/>
       <c r="CW23" s="3"/>
       <c r="CX23" s="3"/>
+      <c r="CY23" s="3"/>
+      <c r="CZ23" s="3"/>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5291,111 +5461,111 @@
       <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="10">
         <v>7348</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5">
+      <c r="P24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5">
         <v>99022825</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T24" s="5">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
         <v>1</v>
       </c>
-      <c r="U24" s="5">
+      <c r="Z24" s="5">
         <v>1</v>
       </c>
-      <c r="V24" s="5">
+      <c r="AA24" s="5">
         <v>2</v>
       </c>
-      <c r="W24" s="5">
+      <c r="AB24" s="5">
         <v>100</v>
       </c>
-      <c r="X24" s="5">
+      <c r="AC24" s="5">
         <v>75</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="AD24" s="5">
         <v>30</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="AE24" s="5">
         <v>123456</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="AF24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
-      <c r="AP24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ24" s="6">
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6">
         <v>3</v>
       </c>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="6"/>
       <c r="AV24" s="6"/>
-      <c r="AW24" s="6">
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6">
         <v>200</v>
       </c>
-      <c r="AX24" s="5">
+      <c r="AZ24" s="5">
         <v>954</v>
       </c>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="3" t="s">
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB24" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="BD24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE24" s="5"/>
       <c r="BF24" s="5"/>
-      <c r="BG24" s="5">
+      <c r="BG24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
-      <c r="BM24" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO24" s="5"/>
-      <c r="BP24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP24" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>
       <c r="BS24" s="5"/>
@@ -5416,33 +5586,37 @@
       <c r="CH24" s="5"/>
       <c r="CI24" s="5"/>
       <c r="CJ24" s="5"/>
-      <c r="CK24" s="5">
+      <c r="CK24" s="5"/>
+      <c r="CL24" s="5"/>
+      <c r="CM24" s="5">
         <v>1072</v>
       </c>
-      <c r="CL24" s="5">
+      <c r="CN24" s="5">
         <v>1845</v>
       </c>
-      <c r="CM24" s="3"/>
-      <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
       <c r="CP24" s="3"/>
       <c r="CQ24" s="3"/>
-      <c r="CR24" s="3"/>
-      <c r="CS24" s="3">
+      <c r="CR24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3">
         <v>105</v>
       </c>
-      <c r="CT24" s="3"/>
-      <c r="CU24" s="3"/>
       <c r="CV24" s="3"/>
       <c r="CW24" s="3"/>
       <c r="CX24" s="3"/>
+      <c r="CY24" s="3"/>
+      <c r="CZ24" s="3"/>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5457,117 +5631,117 @@
         <v>11</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="5">
+        <v>97</v>
+      </c>
+      <c r="J25" s="10">
         <v>7348</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5">
-        <v>99022825</v>
-      </c>
+      <c r="P25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T25" s="5">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5">
+        <v>99022825</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5">
         <v>10</v>
       </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
+      <c r="AE25" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
-      <c r="AP25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ25" s="6">
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6">
         <v>1</v>
       </c>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="6"/>
-      <c r="AV25" s="6">
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6">
         <v>954</v>
       </c>
-      <c r="AW25" s="6">
+      <c r="AY25" s="6">
         <v>954</v>
       </c>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
-      <c r="BA25" s="3" t="s">
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB25" t="s">
-        <v>208</v>
-      </c>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG25" s="5">
+      <c r="BD25" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI25" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
-      <c r="BL25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO25" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP25" s="5"/>
       <c r="BQ25" s="5"/>
       <c r="BR25" s="5"/>
       <c r="BS25" s="5"/>
-      <c r="BT25" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
-      <c r="BV25" s="5"/>
+      <c r="BV25" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BW25" s="5"/>
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
@@ -5581,40 +5755,42 @@
       <c r="CG25" s="5"/>
       <c r="CH25" s="5"/>
       <c r="CI25" s="5"/>
-      <c r="CJ25" s="5">
+      <c r="CJ25" s="5"/>
+      <c r="CK25" s="5"/>
+      <c r="CL25" s="5">
         <v>1845</v>
       </c>
-      <c r="CK25" s="5">
+      <c r="CM25" s="5">
         <v>1845</v>
       </c>
-      <c r="CL25" s="5"/>
-      <c r="CM25" s="3"/>
-      <c r="CN25" s="3"/>
-      <c r="CO25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CP25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ25" s="3"/>
-      <c r="CR25" s="3"/>
-      <c r="CS25" s="3">
+      <c r="CN25" s="5"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3">
         <v>2</v>
       </c>
-      <c r="CT25" s="3"/>
-      <c r="CU25" s="3"/>
-      <c r="CV25" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="CV25" s="3"/>
       <c r="CW25" s="3"/>
-      <c r="CX25" s="3"/>
+      <c r="CX25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5623,125 +5799,125 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="10">
         <v>1268</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="W26" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
+      <c r="AE26" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
-      <c r="AP26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ26" s="6">
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6">
         <v>2</v>
       </c>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6">
-        <v>2</v>
-      </c>
+      <c r="AT26" s="6"/>
       <c r="AU26" s="6"/>
       <c r="AV26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6">
         <v>954</v>
       </c>
-      <c r="AW26" s="6">
+      <c r="AY26" s="6">
         <v>954</v>
       </c>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
       <c r="AZ26" s="5"/>
-      <c r="BA26" s="3" t="s">
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB26" s="5" t="s">
+      <c r="BD26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD26" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE26" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5">
+        <v>141</v>
+      </c>
+      <c r="BF26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
-      <c r="BL26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN26" s="5"/>
-      <c r="BO26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO26" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP26" s="5"/>
       <c r="BQ26" s="5"/>
-      <c r="BR26" s="5" t="s">
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS26" s="5"/>
-      <c r="BT26" s="5"/>
-      <c r="BU26" s="3" t="s">
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BV26" t="s">
-        <v>218</v>
-      </c>
-      <c r="BW26" s="5"/>
-      <c r="BX26" s="5"/>
+      <c r="BX26" t="s">
+        <v>210</v>
+      </c>
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
@@ -5753,41 +5929,45 @@
       <c r="CG26" s="5"/>
       <c r="CH26" s="5"/>
       <c r="CI26" s="5"/>
-      <c r="CJ26" s="5">
+      <c r="CJ26" s="5"/>
+      <c r="CK26" s="5"/>
+      <c r="CL26" s="5">
         <v>1845</v>
       </c>
-      <c r="CK26" s="5">
+      <c r="CM26" s="5">
         <v>1845</v>
       </c>
-      <c r="CL26" s="5"/>
-      <c r="CM26" s="3"/>
-      <c r="CN26" s="3"/>
+      <c r="CN26" s="5"/>
       <c r="CO26" s="3"/>
       <c r="CP26" s="3"/>
       <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3">
+      <c r="CR26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3">
         <v>15</v>
       </c>
-      <c r="CT26" s="3"/>
-      <c r="CU26" s="3"/>
       <c r="CV26" s="3"/>
-      <c r="CW26" s="3">
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3">
         <v>40</v>
       </c>
-      <c r="CX26" s="3"/>
+      <c r="CZ26" s="3"/>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5795,117 +5975,117 @@
         <v>11</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+      <c r="W27" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
+      <c r="AE27" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM27" s="6"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ27" s="6">
+      <c r="AO27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6">
         <v>2</v>
       </c>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6">
-        <v>2</v>
-      </c>
+      <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6">
         <v>954</v>
       </c>
-      <c r="AW27" s="6">
+      <c r="AY27" s="6">
         <v>954</v>
       </c>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
       <c r="AZ27" s="5"/>
-      <c r="BA27" s="3" t="s">
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB27" s="5" t="s">
+      <c r="BD27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD27" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE27" s="5" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="BF27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG27" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI27" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
-      <c r="BL27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN27" s="5"/>
-      <c r="BO27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO27" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP27" s="5"/>
       <c r="BQ27" s="5"/>
-      <c r="BR27" s="5" t="s">
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS27" s="5"/>
-      <c r="BT27" s="5"/>
       <c r="BU27" s="5"/>
       <c r="BV27" s="5"/>
       <c r="BW27" s="5"/>
@@ -5921,36 +6101,40 @@
       <c r="CG27" s="5"/>
       <c r="CH27" s="5"/>
       <c r="CI27" s="5"/>
-      <c r="CJ27" s="5">
+      <c r="CJ27" s="5"/>
+      <c r="CK27" s="5"/>
+      <c r="CL27" s="5">
         <v>1845</v>
       </c>
-      <c r="CK27" s="5">
+      <c r="CM27" s="5">
         <v>1845</v>
       </c>
-      <c r="CL27" s="5"/>
-      <c r="CM27" s="3"/>
-      <c r="CN27" s="3"/>
+      <c r="CN27" s="5"/>
       <c r="CO27" s="3"/>
       <c r="CP27" s="3"/>
       <c r="CQ27" s="3"/>
-      <c r="CR27" s="3"/>
-      <c r="CS27" s="3">
+      <c r="CR27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3">
         <v>20</v>
       </c>
-      <c r="CT27" s="3"/>
-      <c r="CU27" s="3"/>
       <c r="CV27" s="3"/>
-      <c r="CW27" s="3">
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3">
         <v>100</v>
       </c>
-      <c r="CX27" s="3"/>
+      <c r="CZ27" s="3"/>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5961,112 +6145,112 @@
         <v>11</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="W28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA28" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
+      <c r="AE28" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
-      <c r="AP28" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ28" s="6">
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6">
         <v>10</v>
       </c>
-      <c r="AR28" s="6">
+      <c r="AT28" s="6">
         <v>6</v>
       </c>
-      <c r="AS28" s="6">
+      <c r="AU28" s="6">
         <v>4</v>
       </c>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6">
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6">
         <v>954</v>
       </c>
-      <c r="AW28" s="6">
+      <c r="AY28" s="6">
         <v>954</v>
       </c>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
       <c r="AZ28" s="5"/>
-      <c r="BA28" s="3" t="s">
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB28" s="5" t="s">
+      <c r="BD28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD28" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE28" s="5" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="BF28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG28" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI28" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
       <c r="BK28" s="5"/>
-      <c r="BL28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO28" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP28" s="5"/>
       <c r="BQ28" s="5"/>
       <c r="BR28" s="5"/>
@@ -6082,51 +6266,53 @@
       <c r="CB28" s="5"/>
       <c r="CC28" s="5"/>
       <c r="CD28" s="5"/>
-      <c r="CE28" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="CE28" s="5"/>
       <c r="CF28" s="5"/>
-      <c r="CG28" s="5"/>
+      <c r="CG28" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="CH28" s="5"/>
       <c r="CI28" s="5"/>
-      <c r="CJ28" s="5">
+      <c r="CJ28" s="5"/>
+      <c r="CK28" s="5"/>
+      <c r="CL28" s="5">
         <v>1845</v>
       </c>
-      <c r="CK28" s="5">
+      <c r="CM28" s="5">
         <v>1845</v>
       </c>
-      <c r="CL28" s="5"/>
-      <c r="CM28" s="3"/>
-      <c r="CN28" s="3"/>
+      <c r="CN28" s="5"/>
       <c r="CO28" s="3"/>
-      <c r="CP28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ28" s="3">
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS28" s="3">
         <v>1</v>
       </c>
-      <c r="CR28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CS28" s="3">
+      <c r="CT28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CU28" s="3">
         <v>100</v>
       </c>
-      <c r="CT28" s="3">
+      <c r="CV28" s="3">
         <v>60</v>
       </c>
-      <c r="CU28" s="3">
+      <c r="CW28" s="3">
         <v>40</v>
       </c>
-      <c r="CV28" s="3"/>
-      <c r="CW28" s="3"/>
       <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -6139,113 +6325,113 @@
         <v>11</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
+      <c r="W29" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA29" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
+      <c r="AE29" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF29" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
-      <c r="AP29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ29" s="6">
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6">
         <v>2</v>
       </c>
-      <c r="AR29" s="6">
+      <c r="AT29" s="6">
         <v>1</v>
       </c>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
-      <c r="AV29" s="6">
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6">
         <v>954</v>
       </c>
-      <c r="AW29" s="6">
+      <c r="AY29" s="6">
         <v>954</v>
       </c>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
       <c r="AZ29" s="5"/>
-      <c r="BA29" s="3" t="s">
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB29" s="5" t="s">
+      <c r="BD29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD29" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE29" s="5" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="BF29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG29" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI29" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
-      <c r="BL29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN29" s="5"/>
-      <c r="BO29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO29" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP29" s="5"/>
       <c r="BQ29" s="5"/>
-      <c r="BR29" s="5" t="s">
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="5"/>
+      <c r="BT29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS29" s="5"/>
-      <c r="BT29" s="5"/>
       <c r="BU29" s="5"/>
       <c r="BV29" s="5"/>
       <c r="BW29" s="5"/>
@@ -6256,47 +6442,51 @@
       <c r="CB29" s="5"/>
       <c r="CC29" s="5"/>
       <c r="CD29" s="5"/>
-      <c r="CE29" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="CE29" s="5"/>
       <c r="CF29" s="5"/>
-      <c r="CG29" s="5"/>
+      <c r="CG29" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="CH29" s="5"/>
       <c r="CI29" s="5"/>
-      <c r="CJ29" s="5">
+      <c r="CJ29" s="5"/>
+      <c r="CK29" s="5"/>
+      <c r="CL29" s="5">
         <v>1845</v>
       </c>
-      <c r="CK29" s="5">
+      <c r="CM29" s="5">
         <v>1845</v>
       </c>
-      <c r="CL29" s="5"/>
-      <c r="CM29" s="3"/>
-      <c r="CN29" s="3"/>
+      <c r="CN29" s="5"/>
       <c r="CO29" s="3"/>
       <c r="CP29" s="3"/>
-      <c r="CQ29" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="CQ29" s="3"/>
       <c r="CR29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CS29" s="3">
+        <v>49</v>
+      </c>
+      <c r="CS29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CT29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CU29" s="3">
         <v>500</v>
       </c>
-      <c r="CT29" s="3">
+      <c r="CV29" s="3">
         <v>250</v>
       </c>
-      <c r="CU29" s="3"/>
-      <c r="CV29" s="3"/>
       <c r="CW29" s="3"/>
       <c r="CX29" s="3"/>
+      <c r="CY29" s="3"/>
+      <c r="CZ29" s="3"/>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6307,115 +6497,115 @@
         <v>11</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="P30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="W30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
+      <c r="AE30" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
-      <c r="AP30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ30" s="6">
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6">
         <v>10</v>
       </c>
-      <c r="AR30" s="6">
+      <c r="AT30" s="6">
         <v>6</v>
       </c>
-      <c r="AS30" s="6">
+      <c r="AU30" s="6">
         <v>4</v>
       </c>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6">
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6">
         <v>954</v>
       </c>
-      <c r="AW30" s="6">
+      <c r="AY30" s="6">
         <v>954</v>
       </c>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
-      <c r="BA30" s="3" t="s">
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB30" s="5" t="s">
+      <c r="BD30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD30" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE30" s="5" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="BF30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG30" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI30" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH30" s="5"/>
-      <c r="BI30" s="5"/>
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
-      <c r="BL30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN30" s="5"/>
-      <c r="BO30" s="5"/>
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO30" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP30" s="5"/>
       <c r="BQ30" s="5"/>
-      <c r="BR30" s="5" t="s">
+      <c r="BR30" s="5"/>
+      <c r="BS30" s="5"/>
+      <c r="BT30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS30" s="5"/>
-      <c r="BT30" s="5"/>
       <c r="BU30" s="5"/>
       <c r="BV30" s="5"/>
       <c r="BW30" s="5"/>
@@ -6426,51 +6616,53 @@
       <c r="CB30" s="5"/>
       <c r="CC30" s="5"/>
       <c r="CD30" s="5"/>
-      <c r="CE30" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="CE30" s="5"/>
       <c r="CF30" s="5"/>
-      <c r="CG30" s="5"/>
+      <c r="CG30" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="CH30" s="5"/>
       <c r="CI30" s="5"/>
-      <c r="CJ30" s="5">
+      <c r="CJ30" s="5"/>
+      <c r="CK30" s="5"/>
+      <c r="CL30" s="5">
         <v>1845</v>
       </c>
-      <c r="CK30" s="5">
+      <c r="CM30" s="5">
         <v>1845</v>
       </c>
-      <c r="CL30" s="5"/>
-      <c r="CM30" s="3"/>
-      <c r="CN30" s="3"/>
+      <c r="CN30" s="5"/>
       <c r="CO30" s="3"/>
-      <c r="CP30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ30" s="3">
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS30" s="3">
         <v>1</v>
       </c>
-      <c r="CR30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CS30" s="3">
+      <c r="CT30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CU30" s="3">
         <v>100</v>
       </c>
-      <c r="CT30" s="3">
+      <c r="CV30" s="3">
         <v>60</v>
       </c>
-      <c r="CU30" s="3">
+      <c r="CW30" s="3">
         <v>40</v>
       </c>
-      <c r="CV30" s="3"/>
-      <c r="CW30" s="3"/>
       <c r="CX30" s="3"/>
+      <c r="CY30" s="3"/>
+      <c r="CZ30" s="3"/>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -6483,117 +6675,117 @@
         <v>11</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="W31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="5">
-        <v>123456</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
+      <c r="AE31" s="5">
+        <v>123456</v>
+      </c>
+      <c r="AF31" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
-      <c r="AP31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ31" s="6">
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6">
         <v>2</v>
       </c>
-      <c r="AR31" s="6">
+      <c r="AT31" s="6">
         <v>1</v>
       </c>
-      <c r="AS31" s="6">
+      <c r="AU31" s="6">
         <v>1</v>
       </c>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6">
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6">
         <v>954</v>
       </c>
-      <c r="AW31" s="6">
+      <c r="AY31" s="6">
         <v>954</v>
       </c>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
       <c r="AZ31" s="5"/>
-      <c r="BA31" s="3" t="s">
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BB31" s="5" t="s">
+      <c r="BD31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BC31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD31" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="BE31" s="5" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="BF31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG31" s="5">
+        <v>72</v>
+      </c>
+      <c r="BG31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI31" s="5">
         <v>99022825</v>
       </c>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
-      <c r="BL31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO31" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="BP31" s="5"/>
       <c r="BQ31" s="5"/>
-      <c r="BR31" s="5" t="s">
+      <c r="BR31" s="5"/>
+      <c r="BS31" s="5"/>
+      <c r="BT31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
       <c r="BU31" s="5"/>
       <c r="BV31" s="5"/>
       <c r="BW31" s="5"/>
@@ -6604,44 +6796,46 @@
       <c r="CB31" s="5"/>
       <c r="CC31" s="5"/>
       <c r="CD31" s="5"/>
-      <c r="CE31" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
-      <c r="CG31" s="5"/>
+      <c r="CG31" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="CH31" s="5"/>
       <c r="CI31" s="5"/>
-      <c r="CJ31" s="5">
+      <c r="CJ31" s="5"/>
+      <c r="CK31" s="5"/>
+      <c r="CL31" s="5">
         <v>1845</v>
       </c>
-      <c r="CK31" s="5">
+      <c r="CM31" s="5">
         <v>1845</v>
       </c>
-      <c r="CL31" s="5"/>
-      <c r="CM31" s="3"/>
-      <c r="CN31" s="3"/>
+      <c r="CN31" s="5"/>
       <c r="CO31" s="3"/>
-      <c r="CP31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ31" s="3">
+      <c r="CP31" s="3"/>
+      <c r="CQ31" s="3"/>
+      <c r="CR31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS31" s="3">
         <v>1</v>
       </c>
-      <c r="CR31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CS31" s="3">
+      <c r="CT31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CU31" s="3">
         <v>500</v>
       </c>
-      <c r="CT31" s="3">
+      <c r="CV31" s="3">
         <v>250</v>
       </c>
-      <c r="CU31" s="3">
+      <c r="CW31" s="3">
         <v>250</v>
       </c>
-      <c r="CV31" s="3"/>
-      <c r="CW31" s="3"/>
       <c r="CX31" s="3"/>
+      <c r="CY31" s="3"/>
+      <c r="CZ31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6650,6 +6844,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D28D49B478A4074CAE5B13C4F0534DF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e521a435ff6731b1c184792ffa547b0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2db8eaa-6cc1-41cd-a261-60f8d0abee5d" xmlns:ns4="bb6e1552-89ca-4b41-b5be-60bff2ebd480" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0c2d2b1ed36a0af8a2317dee27ca734" ns3:_="" ns4:_="">
     <xsd:import namespace="f2db8eaa-6cc1-41cd-a261-60f8d0abee5d"/>
@@ -6866,15 +7069,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6882,6 +7076,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5FEA7F-C843-4D4E-AAA6-FA58AFAC6816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63BDACA-E2E2-4EB6-9217-EA9E55EF65D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6896,14 +7098,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5FEA7F-C843-4D4E-AAA6-FA58AFAC6816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/resources/TestData/BASE/DG_NOTOC_Data.xlsx
+++ b/resources/TestData/BASE/DG_NOTOC_Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="262">
   <si>
     <t>origin</t>
   </si>
@@ -790,6 +790,30 @@
   </si>
   <si>
     <t>56393772</t>
+  </si>
+  <si>
+    <t>0842</t>
+  </si>
+  <si>
+    <t>0524</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>56393750</t>
+  </si>
+  <si>
+    <t>56398705</t>
+  </si>
+  <si>
+    <t>56398716</t>
+  </si>
+  <si>
+    <t>56398731</t>
+  </si>
+  <si>
+    <t>56398764</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1637,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1789,7 +1813,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
         <v>218</v>
@@ -1802,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -2148,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -2313,7 +2337,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3163,7 +3187,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3331,7 +3355,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3342,7 +3366,7 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>

--- a/resources/TestData/BASE/DG_NOTOC_Data.xlsx
+++ b/resources/TestData/BASE/DG_NOTOC_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_AA\DGAutoNotoc_2022\DG_Maven_ADO\DG_Maven\resources\TestData\BASE\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="245">
   <si>
     <t>origin</t>
   </si>
@@ -216,9 +216,6 @@
     <t>UN1845</t>
   </si>
   <si>
-    <t>0115</t>
-  </si>
-  <si>
     <t>iataRate</t>
   </si>
   <si>
@@ -696,18 +693,9 @@
     <t>2112</t>
   </si>
   <si>
-    <t>1794</t>
-  </si>
-  <si>
     <t>56393326</t>
   </si>
   <si>
-    <t>56393341</t>
-  </si>
-  <si>
-    <t>56385140</t>
-  </si>
-  <si>
     <t>56385184</t>
   </si>
   <si>
@@ -723,9 +711,6 @@
     <t>fltNo1</t>
   </si>
   <si>
-    <t>0402</t>
-  </si>
-  <si>
     <t>0912</t>
   </si>
   <si>
@@ -747,48 +732,6 @@
     <t>56393702</t>
   </si>
   <si>
-    <t>56393632</t>
-  </si>
-  <si>
-    <t>56393676</t>
-  </si>
-  <si>
-    <t>56393724</t>
-  </si>
-  <si>
-    <t>56393735</t>
-  </si>
-  <si>
-    <t>1570</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>56398790</t>
-  </si>
-  <si>
-    <t>56393691</t>
-  </si>
-  <si>
-    <t>56398823</t>
-  </si>
-  <si>
-    <t>56398845</t>
-  </si>
-  <si>
-    <t>56398856</t>
-  </si>
-  <si>
-    <t>56445605</t>
-  </si>
-  <si>
-    <t>56445631</t>
-  </si>
-  <si>
-    <t>56445664</t>
-  </si>
-  <si>
     <t>56393772</t>
   </si>
   <si>
@@ -807,20 +750,25 @@
     <t>56398705</t>
   </si>
   <si>
-    <t>56398716</t>
-  </si>
-  <si>
     <t>56398731</t>
   </si>
   <si>
     <t>56398764</t>
+  </si>
+  <si>
+    <t>56398801</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>2570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1228,92 +1176,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="19" max="22" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
-    <col min="29" max="30" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="33" max="34" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="3.85546875" collapsed="true"/>
-    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="4.85546875" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="51" max="54" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="62" max="65" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="53.140625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="46.42578125" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="85" max="89" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="91" max="94" bestFit="true" customWidth="true" style="1" width="8.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" style="1" width="4.5703125" collapsed="true"/>
-    <col min="97" max="98" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="100" max="101" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="105" max="16384" style="1" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="22" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="30" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="34" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="3" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="3.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="4.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="54" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="3.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="65" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="53.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="36.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="46.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="89" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="94" width="8.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="4.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="98" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="101" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="16384" width="10.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>20</v>
@@ -1322,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>42</v>
@@ -1331,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>21</v>
@@ -1340,13 +1288,13 @@
         <v>30</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>0</v>
@@ -1355,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>4</v>
@@ -1382,25 +1330,25 @@
         <v>23</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Z1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="AE1" s="9" t="s">
         <v>27</v>
@@ -1409,22 +1357,22 @@
         <v>28</v>
       </c>
       <c r="AG1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="AI1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="AK1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM1" s="9" t="s">
         <v>31</v>
@@ -1433,196 +1381,196 @@
         <v>7</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AP1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="AS1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AT1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AU1" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="AV1" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AY1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="BC1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="BE1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="BH1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="BJ1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BK1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="BN1" s="9" t="s">
         <v>59</v>
       </c>
       <c r="BO1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="BR1" s="9" t="s">
-        <v>183</v>
-      </c>
       <c r="BS1" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BU1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BV1" s="9" t="s">
         <v>46</v>
       </c>
       <c r="BW1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="BX1" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="BY1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BZ1" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="CA1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CB1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC1" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="CC1" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="CD1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="CE1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CF1" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CG1" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CH1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="CJ1" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="CK1" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CL1" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CM1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="CP1" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="CQ1" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CR1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="CS1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT1" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="CT1" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="CU1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="CV1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="CW1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="CW1" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="CX1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="CY1" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CZ1" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
@@ -1630,14 +1578,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1648,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -1695,7 +1643,7 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
@@ -1806,17 +1754,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
@@ -1826,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -1840,7 +1788,7 @@
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>55</v>
@@ -1867,10 +1815,10 @@
         <v>5</v>
       </c>
       <c r="AC3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" t="s">
         <v>84</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>85</v>
       </c>
       <c r="AE3" s="5">
         <v>123456</v>
@@ -1885,7 +1833,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
@@ -1966,7 +1914,7 @@
       </c>
       <c r="CO3" s="3"/>
       <c r="CP3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CQ3" s="3"/>
       <c r="CR3" s="3" t="s">
@@ -1990,14 +1938,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2005,13 +1953,13 @@
         <v>11</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>244</v>
@@ -2057,7 +2005,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
@@ -2154,14 +2102,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2172,12 +2120,12 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2219,11 +2167,11 @@
         <v>1000</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6">
@@ -2250,17 +2198,17 @@
         <v>14</v>
       </c>
       <c r="BD5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE5" s="5"/>
       <c r="BF5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI5" s="5">
         <v>99022825</v>
@@ -2278,7 +2226,7 @@
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
       <c r="BT5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BU5" s="5" t="s">
         <v>16</v>
@@ -2295,7 +2243,7 @@
       <c r="CC5" s="5"/>
       <c r="CD5" s="5"/>
       <c r="CE5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CF5" s="5"/>
       <c r="CG5" s="5"/>
@@ -2330,14 +2278,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2348,16 +2296,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>10</v>
@@ -2401,7 +2349,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
@@ -2437,13 +2385,13 @@
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
       <c r="BO6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BP6" s="5" t="s">
+      <c r="BQ6" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="BQ6" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
@@ -2498,14 +2446,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2516,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -2550,7 +2498,7 @@
         <v>882234455</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -2561,7 +2509,7 @@
       </c>
       <c r="AL7" s="5"/>
       <c r="AM7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
@@ -2594,13 +2542,13 @@
       </c>
       <c r="BE7" s="5"/>
       <c r="BF7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI7" s="5">
         <v>99022825</v>
@@ -2610,10 +2558,10 @@
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BO7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
@@ -2670,27 +2618,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -2703,13 +2651,13 @@
         <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -2739,7 +2687,7 @@
       </c>
       <c r="AL8" s="5"/>
       <c r="AM8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
@@ -2768,13 +2716,13 @@
       </c>
       <c r="BE8" s="5"/>
       <c r="BF8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI8" s="5">
         <v>99022825</v>
@@ -2840,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
@@ -2856,7 +2804,7 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2866,7 +2814,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
@@ -2897,7 +2845,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
@@ -2932,10 +2880,10 @@
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BO9" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BP9" s="5"/>
       <c r="BQ9" s="5"/>
@@ -2988,17 +2936,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
@@ -3008,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -3055,7 +3003,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
@@ -3092,29 +3040,29 @@
       <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
       <c r="BJ10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BK10" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="BL10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="BM10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="BN10" s="5"/>
       <c r="BO10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BP10" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="BQ10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BR10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
@@ -3128,7 +3076,7 @@
       <c r="CB10" s="5"/>
       <c r="CC10" s="5"/>
       <c r="CD10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
@@ -3140,13 +3088,13 @@
         <v>3091</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CK10" s="5">
         <v>3481</v>
       </c>
       <c r="CL10" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM10" s="5">
         <v>3157</v>
@@ -3155,7 +3103,7 @@
         <v>3091</v>
       </c>
       <c r="CO10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CP10" s="3">
         <v>3481</v>
@@ -3180,14 +3128,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3198,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -3241,7 +3189,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN11" s="6" t="s">
         <v>47</v>
@@ -3274,13 +3222,13 @@
       </c>
       <c r="BE11" s="5"/>
       <c r="BF11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI11" s="5">
         <v>99022825</v>
@@ -3290,10 +3238,10 @@
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BO11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BP11" s="5"/>
       <c r="BQ11" s="5"/>
@@ -3312,7 +3260,7 @@
       <c r="CD11" s="5"/>
       <c r="CE11" s="5"/>
       <c r="CF11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG11" s="5"/>
       <c r="CH11" s="5"/>
@@ -3320,10 +3268,10 @@
       <c r="CJ11" s="5"/>
       <c r="CK11" s="5"/>
       <c r="CL11" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CN11" s="5"/>
       <c r="CO11" s="3"/>
@@ -3348,14 +3296,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3366,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -3387,7 +3335,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -3409,7 +3357,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN12" s="6" t="s">
         <v>47</v>
@@ -3440,26 +3388,26 @@
       </c>
       <c r="BE12" s="5"/>
       <c r="BF12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BO12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BP12" s="5"/>
       <c r="BQ12" s="5"/>
@@ -3478,7 +3426,7 @@
       <c r="CD12" s="5"/>
       <c r="CE12" s="5"/>
       <c r="CF12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG12" s="5"/>
       <c r="CH12" s="5"/>
@@ -3486,7 +3434,7 @@
       <c r="CJ12" s="5"/>
       <c r="CK12" s="5"/>
       <c r="CL12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM12" s="5">
         <v>1057</v>
@@ -3506,7 +3454,7 @@
       <c r="CV12" s="3"/>
       <c r="CW12" s="3"/>
       <c r="CX12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CY12" s="3"/>
       <c r="CZ12" s="3"/>
@@ -3516,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -3534,7 +3482,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -3555,7 +3503,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -3577,7 +3525,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN13" s="6" t="s">
         <v>47</v>
@@ -3616,13 +3564,13 @@
       </c>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI13" s="5">
         <v>99022825</v>
@@ -3632,13 +3580,13 @@
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BO13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP13" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="BP13" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="5"/>
@@ -3654,11 +3602,11 @@
       <c r="CB13" s="5"/>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
@@ -3666,7 +3614,7 @@
       <c r="CJ13" s="5"/>
       <c r="CK13" s="5"/>
       <c r="CL13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM13" s="5">
         <v>1056</v>
@@ -3702,14 +3650,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -3720,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3741,7 +3689,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -3763,7 +3711,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN14" s="6" t="s">
         <v>47</v>
@@ -3800,13 +3748,13 @@
       </c>
       <c r="BE14" s="5"/>
       <c r="BF14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI14" s="5">
         <v>99022825</v>
@@ -3817,10 +3765,10 @@
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
       <c r="BO14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BP14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BQ14" s="5"/>
       <c r="BR14" s="5"/>
@@ -3838,7 +3786,7 @@
       <c r="CD14" s="5"/>
       <c r="CE14" s="5"/>
       <c r="CF14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
@@ -3846,7 +3794,7 @@
       <c r="CJ14" s="5"/>
       <c r="CK14" s="5"/>
       <c r="CL14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM14" s="5">
         <v>3157</v>
@@ -3882,14 +3830,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -3900,7 +3848,7 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -3921,7 +3869,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -3943,7 +3891,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN15" s="6" t="s">
         <v>47</v>
@@ -3976,13 +3924,13 @@
       </c>
       <c r="BE15" s="5"/>
       <c r="BF15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI15" s="5">
         <v>99022825</v>
@@ -3992,13 +3940,13 @@
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP15" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="BO15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="BP15" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="BQ15" s="5"/>
       <c r="BR15" s="5"/>
@@ -4022,10 +3970,10 @@
       <c r="CJ15" s="5"/>
       <c r="CK15" s="5"/>
       <c r="CL15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CM15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CN15" s="5">
         <v>2915</v>
@@ -4054,14 +4002,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -4072,7 +4020,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4087,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>22</v>
@@ -4097,7 +4045,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -4121,7 +4069,7 @@
       </c>
       <c r="AL16" s="5"/>
       <c r="AM16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>47</v>
@@ -4157,16 +4105,16 @@
         <v>12</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI16" s="5">
         <v>99022825</v>
@@ -4176,16 +4124,16 @@
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BO16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BP16" s="5"/>
       <c r="BQ16" s="5"/>
       <c r="BR16" s="5"/>
       <c r="BS16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
@@ -4204,7 +4152,7 @@
       <c r="CD16" s="5"/>
       <c r="CE16" s="5"/>
       <c r="CF16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
@@ -4244,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -4253,7 +4201,7 @@
         <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F17" s="4">
         <v>56362390</v>
@@ -4268,7 +4216,7 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -4286,12 +4234,12 @@
         <v>61</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -4307,10 +4255,10 @@
         <v>29</v>
       </c>
       <c r="AG17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH17" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="AI17" s="5">
         <v>67</v>
@@ -4321,7 +4269,7 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
@@ -4350,7 +4298,7 @@
       </c>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG17" s="5"/>
       <c r="BH17" s="5"/>
@@ -4366,13 +4314,13 @@
         <v>40</v>
       </c>
       <c r="BP17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ17" s="5"/>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BU17" s="5" t="s">
         <v>16</v>
@@ -4391,7 +4339,7 @@
       <c r="CC17" s="5"/>
       <c r="CD17" s="5"/>
       <c r="CE17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
@@ -4428,17 +4376,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" t="s">
         <v>216</v>
-      </c>
-      <c r="F18" t="s">
-        <v>217</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
@@ -4450,7 +4398,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4465,7 +4413,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>22</v>
@@ -4473,7 +4421,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -4489,17 +4437,17 @@
         <v>29</v>
       </c>
       <c r="AG18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH18" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
@@ -4530,7 +4478,7 @@
       </c>
       <c r="BE18" s="5"/>
       <c r="BF18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG18" s="5"/>
       <c r="BH18" s="5"/>
@@ -4569,7 +4517,7 @@
       <c r="CC18" s="5"/>
       <c r="CD18" s="5"/>
       <c r="CE18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CF18" s="5"/>
       <c r="CG18" s="5"/>
@@ -4606,14 +4554,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -4634,7 +4582,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5" t="s">
@@ -4645,7 +4593,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -4667,7 +4615,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>47</v>
@@ -4696,26 +4644,26 @@
       </c>
       <c r="BE19" s="5"/>
       <c r="BF19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BO19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BP19" s="5"/>
       <c r="BQ19" s="5"/>
@@ -4732,11 +4680,11 @@
       <c r="CB19" s="5"/>
       <c r="CC19" s="5"/>
       <c r="CD19" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CE19" s="5"/>
       <c r="CF19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CG19" s="5"/>
       <c r="CH19" s="5"/>
@@ -4772,7 +4720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
@@ -4800,7 +4748,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5" t="s">
@@ -4811,7 +4759,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -4824,7 +4772,7 @@
         <v>789462626</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -4833,7 +4781,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
@@ -4867,10 +4815,10 @@
         <v>12</v>
       </c>
       <c r="BE20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG20" s="5" t="s">
         <v>35</v>
@@ -4948,7 +4896,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
@@ -4987,7 +4935,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -5000,7 +4948,7 @@
         <v>789462626</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -5009,7 +4957,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
@@ -5039,10 +4987,10 @@
         <v>12</v>
       </c>
       <c r="BE21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG21" s="5" t="s">
         <v>35</v>
@@ -5056,10 +5004,10 @@
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BP21" s="5"/>
       <c r="BQ21" s="5"/>
@@ -5076,7 +5024,7 @@
         <v>15</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CA21" s="5"/>
       <c r="CB21" s="5"/>
@@ -5118,7 +5066,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
@@ -5193,7 +5141,7 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -5237,10 +5185,10 @@
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
       <c r="BO22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BP22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="5"/>
@@ -5268,7 +5216,7 @@
         <v>1058</v>
       </c>
       <c r="CN22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
@@ -5292,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5307,7 +5255,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="10">
         <v>7348</v>
@@ -5357,7 +5305,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
@@ -5405,13 +5353,13 @@
       <c r="BM23" s="5"/>
       <c r="BN23" s="5"/>
       <c r="BO23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BP23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ23" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="BQ23" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="BR23" s="5" t="s">
         <v>40</v>
@@ -5440,7 +5388,7 @@
         <v>3091</v>
       </c>
       <c r="CN23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CO23" s="3">
         <v>3481</v>
@@ -5468,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5541,7 +5489,7 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
@@ -5568,7 +5516,7 @@
         <v>14</v>
       </c>
       <c r="BD24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BE24" s="5"/>
       <c r="BF24" s="5"/>
@@ -5585,10 +5533,10 @@
       <c r="BM24" s="5"/>
       <c r="BN24" s="5"/>
       <c r="BO24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP24" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="BP24" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>
@@ -5640,7 +5588,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5655,7 +5603,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="10">
         <v>7348</v>
@@ -5682,7 +5630,7 @@
         <v>99022825</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y25" s="5">
         <v>1</v>
@@ -5707,7 +5655,7 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
@@ -5734,7 +5682,7 @@
         <v>14</v>
       </c>
       <c r="BD25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE25" s="5"/>
       <c r="BF25" s="5"/>
@@ -5742,7 +5690,7 @@
         <v>35</v>
       </c>
       <c r="BH25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI25" s="5">
         <v>99022825</v>
@@ -5791,7 +5739,7 @@
       <c r="CO25" s="3"/>
       <c r="CP25" s="3"/>
       <c r="CQ25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CR25" s="3" t="s">
         <v>49</v>
@@ -5804,7 +5752,7 @@
       <c r="CV25" s="3"/>
       <c r="CW25" s="3"/>
       <c r="CX25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CY25" s="3"/>
       <c r="CZ25" s="3"/>
@@ -5814,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5851,7 +5799,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -5873,7 +5821,7 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
@@ -5905,13 +5853,13 @@
         <v>12</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG26" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BH26" s="5"/>
       <c r="BI26" s="5">
@@ -5940,7 +5888,7 @@
         <v>17</v>
       </c>
       <c r="BX26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
@@ -5986,12 +5934,12 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5999,10 +5947,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -6023,7 +5971,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -6045,11 +5993,11 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN27" s="6"/>
       <c r="AO27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
@@ -6079,16 +6027,16 @@
         <v>12</v>
       </c>
       <c r="BE27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BH27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI27" s="5">
         <v>99022825</v>
@@ -6158,7 +6106,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6173,7 +6121,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>32</v>
@@ -6193,7 +6141,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X28" s="5" t="s">
         <v>13</v>
@@ -6217,7 +6165,7 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
@@ -6251,16 +6199,16 @@
         <v>12</v>
       </c>
       <c r="BE28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI28" s="5">
         <v>99022825</v>
@@ -6293,7 +6241,7 @@
       <c r="CE28" s="5"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CH28" s="5"/>
       <c r="CI28" s="5"/>
@@ -6316,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="CT28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CU28" s="3">
         <v>100</v>
@@ -6336,7 +6284,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -6353,7 +6301,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>10</v>
@@ -6371,7 +6319,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
@@ -6393,7 +6341,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
@@ -6425,16 +6373,16 @@
         <v>12</v>
       </c>
       <c r="BE29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI29" s="5">
         <v>99022825</v>
@@ -6469,7 +6417,7 @@
       <c r="CE29" s="5"/>
       <c r="CF29" s="5"/>
       <c r="CG29" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CH29" s="5"/>
       <c r="CI29" s="5"/>
@@ -6489,10 +6437,10 @@
         <v>49</v>
       </c>
       <c r="CS29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CT29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CU29" s="3">
         <v>500</v>
@@ -6510,7 +6458,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6525,7 +6473,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -6541,7 +6489,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>13</v>
@@ -6565,7 +6513,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
@@ -6599,16 +6547,16 @@
         <v>12</v>
       </c>
       <c r="BE30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG30" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI30" s="5">
         <v>99022825</v>
@@ -6643,7 +6591,7 @@
       <c r="CE30" s="5"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CH30" s="5"/>
       <c r="CI30" s="5"/>
@@ -6666,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="CT30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CU30" s="3">
         <v>100</v>
@@ -6686,7 +6634,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -6703,14 +6651,14 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5" t="s">
@@ -6721,7 +6669,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>13</v>
@@ -6745,7 +6693,7 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
@@ -6779,16 +6727,16 @@
         <v>12</v>
       </c>
       <c r="BE31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BF31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BH31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI31" s="5">
         <v>99022825</v>
@@ -6823,7 +6771,7 @@
       <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
       <c r="CG31" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CH31" s="5"/>
       <c r="CI31" s="5"/>
@@ -6846,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="CT31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CU31" s="3">
         <v>500</v>

--- a/resources/TestData/BASE/DG_NOTOC_Data.xlsx
+++ b/resources/TestData/BASE/DG_NOTOC_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_AA\DGAutoNotoc_2022\DG_Maven_ADO\DG_Maven\resources\TestData\BASE\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="259">
   <si>
     <t>origin</t>
   </si>
@@ -763,12 +763,55 @@
   </si>
   <si>
     <t>2570</t>
+  </si>
+  <si>
+    <t>56393654</t>
+  </si>
+  <si>
+    <t>56398904</t>
+  </si>
+  <si>
+    <t>56398926</t>
+  </si>
+  <si>
+    <t>56398941</t>
+  </si>
+  <si>
+    <t>56445675</t>
+  </si>
+  <si>
+    <t>56398661</t>
+  </si>
+  <si>
+    <t>56445616</t>
+  </si>
+  <si>
+    <t>56398834</t>
+  </si>
+  <si>
+    <t>56445653</t>
+  </si>
+  <si>
+    <t>56393794</t>
+  </si>
+  <si>
+    <t>56393816</t>
+  </si>
+  <si>
+    <t>56398694</t>
+  </si>
+  <si>
+    <t>56393820</t>
+  </si>
+  <si>
+    <t>56398742</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1176,87 +1219,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="3" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="3.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="4.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="54" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="3.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="65" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="53.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="36.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="46.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="7.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="89" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="94" width="8.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="4.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="98" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="101" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="16384" width="10.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="19" max="22" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="33" max="34" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="3.85546875" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="4.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="51" max="54" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="62" max="65" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="53.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="46.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="85" max="89" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="91" max="94" bestFit="true" customWidth="true" style="1" width="8.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="1" width="4.5703125" collapsed="true"/>
+    <col min="97" max="98" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="100" max="101" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="105" max="16384" style="1" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
@@ -1585,7 +1628,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1761,7 +1804,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>217</v>
@@ -1945,7 +1988,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2109,7 +2152,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2285,7 +2328,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3135,7 +3178,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3303,7 +3346,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>

--- a/resources/TestData/BASE/DG_NOTOC_Data.xlsx
+++ b/resources/TestData/BASE/DG_NOTOC_Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="246">
   <si>
     <t>origin</t>
   </si>
@@ -729,12 +729,6 @@
     <t>56393643</t>
   </si>
   <si>
-    <t>56393702</t>
-  </si>
-  <si>
-    <t>56393772</t>
-  </si>
-  <si>
     <t>0842</t>
   </si>
   <si>
@@ -744,67 +738,34 @@
     <t>0102</t>
   </si>
   <si>
-    <t>56393750</t>
-  </si>
-  <si>
-    <t>56398705</t>
-  </si>
-  <si>
-    <t>56398731</t>
-  </si>
-  <si>
-    <t>56398764</t>
-  </si>
-  <si>
-    <t>56398801</t>
-  </si>
-  <si>
     <t>0808</t>
   </si>
   <si>
     <t>2570</t>
   </si>
   <si>
-    <t>56393654</t>
-  </si>
-  <si>
-    <t>56398904</t>
-  </si>
-  <si>
-    <t>56398926</t>
-  </si>
-  <si>
-    <t>56398941</t>
-  </si>
-  <si>
-    <t>56445675</t>
-  </si>
-  <si>
-    <t>56398661</t>
-  </si>
-  <si>
-    <t>56445616</t>
-  </si>
-  <si>
     <t>56398834</t>
   </si>
   <si>
-    <t>56445653</t>
-  </si>
-  <si>
     <t>56393794</t>
   </si>
   <si>
     <t>56393816</t>
   </si>
   <si>
-    <t>56398694</t>
-  </si>
-  <si>
     <t>56393820</t>
   </si>
   <si>
     <t>56398742</t>
+  </si>
+  <si>
+    <t>56445701</t>
+  </si>
+  <si>
+    <t>56445723</t>
+  </si>
+  <si>
+    <t>56393805</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1175,7 @@
   <dimension ref="A1:CZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1589,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1636,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>192</v>
@@ -1804,7 +1765,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>217</v>
@@ -1817,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -1988,7 +1949,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1999,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>8</v>
@@ -2152,7 +2113,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2163,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -2328,7 +2289,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3178,7 +3139,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3346,7 +3307,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3357,7 +3318,7 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -6859,12 +6820,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7085,15 +7043,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5FEA7F-C843-4D4E-AAA6-FA58AFAC6816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA72792-1D19-4326-885B-6619A8E326CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb6e1552-89ca-4b41-b5be-60bff2ebd480"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f2db8eaa-6cc1-41cd-a261-60f8d0abee5d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7118,18 +7088,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA72792-1D19-4326-885B-6619A8E326CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5FEA7F-C843-4D4E-AAA6-FA58AFAC6816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb6e1552-89ca-4b41-b5be-60bff2ebd480"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f2db8eaa-6cc1-41cd-a261-60f8d0abee5d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>